--- a/notebooks/GLI3/input/GLI3_PHS_individuals.xlsx
+++ b/notebooks/GLI3/input/GLI3_PHS_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/GLI3/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648EBC7B-0FD4-C147-9AB5-B883AEC6A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C218364-E482-C648-9D8D-DB7846D98C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="10220" windowWidth="29520" windowHeight="14020" xr2:uid="{748B0DF4-A9F0-974A-A364-1A291D6CEAF5}"/>
+    <workbookView xWindow="5040" yWindow="7160" windowWidth="29520" windowHeight="14020" xr2:uid="{748B0DF4-A9F0-974A-A364-1A291D6CEAF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="114">
   <si>
     <t>PMID</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>G083 -Father</t>
+  </si>
+  <si>
+    <t>OMIM:146510</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E20" sqref="E20:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1060,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1140,7 +1143,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1223,7 +1226,7 @@
         <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -1306,7 +1309,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1389,7 +1392,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -1472,7 +1475,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
@@ -1555,7 +1558,7 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -1638,7 +1641,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
         <v>42</v>
@@ -1721,7 +1724,7 @@
         <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
@@ -1804,7 +1807,7 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
         <v>42</v>
@@ -1887,7 +1890,7 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
         <v>42</v>
@@ -1970,7 +1973,7 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
         <v>42</v>
@@ -2053,7 +2056,7 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
@@ -2136,7 +2139,7 @@
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
         <v>42</v>
@@ -2219,7 +2222,7 @@
         <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
         <v>42</v>
@@ -2302,7 +2305,7 @@
         <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
@@ -2385,7 +2388,7 @@
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -2468,7 +2471,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
@@ -2551,7 +2554,7 @@
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2634,7 +2637,7 @@
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>

--- a/notebooks/GLI3/input/GLI3_PHS_individuals.xlsx
+++ b/notebooks/GLI3/input/GLI3_PHS_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/GLI3/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C218364-E482-C648-9D8D-DB7846D98C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EDCB99-FF9F-EB4D-A4FC-ED060450670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5040" yWindow="7160" windowWidth="29520" windowHeight="14020" xr2:uid="{748B0DF4-A9F0-974A-A364-1A291D6CEAF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="113">
   <si>
     <t>PMID</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>NM_000168.6</t>
-  </si>
-  <si>
-    <t>OMIM: 146510</t>
   </si>
   <si>
     <t>Pallister-Hall syndrome</t>
@@ -788,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E129D4-872E-924E-8BDB-5B762B0C2812}">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>21</v>
@@ -856,13 +853,13 @@
         <v>22</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>16</v>
@@ -874,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>19</v>
@@ -933,7 +930,7 @@
         <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s">
         <v>34</v>
@@ -942,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="U2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X2" t="s">
         <v>29</v>
@@ -960,7 +957,7 @@
         <v>33</v>
       </c>
       <c r="AA2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB2" t="s">
         <v>32</v>
@@ -974,13 +971,13 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -992,61 +989,61 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
         <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -1057,13 +1054,13 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -1075,58 +1072,58 @@
         <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
         <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s">
         <v>28</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s">
         <v>28</v>
       </c>
       <c r="AA4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s">
         <v>28</v>
@@ -1140,13 +1137,13 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
@@ -1158,61 +1155,61 @@
         <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s">
         <v>28</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
         <v>28</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s">
         <v>28</v>
       </c>
       <c r="AA5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -1223,13 +1220,13 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
@@ -1241,58 +1238,58 @@
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
         <v>28</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s">
         <v>28</v>
       </c>
       <c r="V6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s">
         <v>28</v>
       </c>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s">
         <v>28</v>
       </c>
       <c r="AA6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s">
         <v>28</v>
@@ -1306,13 +1303,13 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
@@ -1324,22 +1321,22 @@
         <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
         <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s">
         <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -1348,16 +1345,16 @@
         <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s">
         <v>28</v>
@@ -1369,16 +1366,16 @@
         <v>28</v>
       </c>
       <c r="Y7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s">
         <v>28</v>
       </c>
       <c r="AA7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -1389,13 +1386,13 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -1407,22 +1404,22 @@
         <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
         <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
         <v>28</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
         <v>28</v>
@@ -1431,13 +1428,13 @@
         <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s">
         <v>28</v>
@@ -1452,16 +1449,16 @@
         <v>28</v>
       </c>
       <c r="Y8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s">
         <v>28</v>
       </c>
       <c r="AA8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -1472,13 +1469,13 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>38</v>
@@ -1490,61 +1487,61 @@
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N9" t="s">
         <v>28</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
         <v>28</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s">
         <v>28</v>
       </c>
       <c r="V9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s">
         <v>28</v>
       </c>
       <c r="Y9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s">
         <v>28</v>
       </c>
       <c r="AA9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -1555,13 +1552,13 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
@@ -1573,58 +1570,58 @@
         <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
         <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
         <v>28</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s">
         <v>28</v>
       </c>
       <c r="AA10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s">
         <v>28</v>
@@ -1638,13 +1635,13 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
         <v>38</v>
@@ -1656,61 +1653,61 @@
         <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
         <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s">
         <v>28</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
         <v>28</v>
       </c>
       <c r="Q11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s">
         <v>28</v>
       </c>
       <c r="V11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s">
         <v>28</v>
       </c>
       <c r="Y11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s">
         <v>28</v>
       </c>
       <c r="AA11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -1721,13 +1718,13 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
         <v>112</v>
       </c>
-      <c r="E12" t="s">
-        <v>113</v>
-      </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -1739,61 +1736,61 @@
         <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
         <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
         <v>28</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
         <v>28</v>
       </c>
       <c r="Q12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s">
         <v>28</v>
       </c>
       <c r="V12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s">
         <v>28</v>
       </c>
       <c r="Y12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s">
         <v>28</v>
       </c>
       <c r="AA12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
@@ -1804,13 +1801,13 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -1822,61 +1819,61 @@
         <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
         <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N13" t="s">
         <v>28</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
         <v>28</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s">
         <v>28</v>
       </c>
       <c r="AA13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
@@ -1887,13 +1884,13 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>38</v>
@@ -1905,61 +1902,61 @@
         <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K14" t="s">
         <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N14" t="s">
         <v>28</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s">
         <v>28</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -1970,13 +1967,13 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
         <v>38</v>
@@ -1988,40 +1985,40 @@
         <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s">
         <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N15" t="s">
         <v>28</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
         <v>28</v>
       </c>
       <c r="Q15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s">
         <v>28</v>
@@ -2030,13 +2027,13 @@
         <v>28</v>
       </c>
       <c r="X15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s">
         <v>28</v>
@@ -2053,13 +2050,13 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -2071,61 +2068,61 @@
         <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s">
         <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
       </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s">
         <v>28</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s">
         <v>28</v>
       </c>
       <c r="AA16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
@@ -2136,13 +2133,13 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2154,61 +2151,61 @@
         <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s">
         <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N17" t="s">
         <v>28</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s">
         <v>28</v>
       </c>
       <c r="Q17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s">
         <v>28</v>
       </c>
       <c r="Y17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s">
         <v>28</v>
       </c>
       <c r="AA17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
@@ -2219,13 +2216,13 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -2237,55 +2234,55 @@
         <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s">
         <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N18" t="s">
         <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s">
         <v>28</v>
       </c>
       <c r="Q18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s">
         <v>28</v>
@@ -2302,13 +2299,13 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2320,55 +2317,55 @@
         <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s">
         <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N19" t="s">
         <v>28</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P19" t="s">
         <v>28</v>
       </c>
       <c r="Q19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s">
         <v>28</v>
@@ -2385,13 +2382,13 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -2403,61 +2400,61 @@
         <v>40</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
         <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N20" t="s">
         <v>28</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P20" t="s">
         <v>28</v>
       </c>
       <c r="Q20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s">
         <v>28</v>
       </c>
       <c r="AB20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
@@ -2468,13 +2465,13 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2486,55 +2483,55 @@
         <v>40</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s">
         <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N21" t="s">
         <v>28</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P21" t="s">
         <v>28</v>
       </c>
       <c r="Q21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s">
         <v>28</v>
@@ -2551,13 +2548,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2569,55 +2566,55 @@
         <v>40</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s">
         <v>28</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N22" t="s">
         <v>28</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P22" t="s">
         <v>28</v>
       </c>
       <c r="Q22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s">
         <v>28</v>
       </c>
       <c r="Y22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s">
         <v>28</v>
@@ -2634,13 +2631,13 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2652,61 +2649,61 @@
         <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K23" t="s">
         <v>28</v>
       </c>
       <c r="L23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N23" t="s">
         <v>28</v>
       </c>
       <c r="O23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P23" t="s">
         <v>28</v>
       </c>
       <c r="Q23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
